--- a/realme/April/Others/7i Imei MC to Sirajgong.xlsx
+++ b/realme/April/Others/7i Imei MC to Sirajgong.xlsx
@@ -15,6 +15,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
+  <si>
+    <t>Tuhin</t>
+  </si>
+  <si>
+    <t>Desh</t>
+  </si>
+  <si>
+    <t>Zilani</t>
+  </si>
+  <si>
+    <t>Hello Natore</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>rasel</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
@@ -26,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,9 +78,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -345,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -356,254 +391,404 @@
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>868529041852319</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>868529042242270</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>868529042242452</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>868529041423137</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>868529042632918</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>868529042632793</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>868529041805036</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>868529041811075</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>868529042633452</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>868529041251579</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>868529041710236</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>868529041709071</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>868529041710095</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>868529041710350</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>868529041708511</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
         <v>868529041708610</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>868529041708214</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>868529041710673</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>868529041710210</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>868529041708677</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>868529041668350</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>868529041667691</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>868529041669978</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>868529041667899</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>868529041668210</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>868529041667972</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>868529041669911</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>868529041670018</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>868529041668277</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>868529041669812</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>868529041664854</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>868529041666610</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>868529041656975</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>868529041662635</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>868529041657056</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>868529041664078</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>868529041663898</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>868529041664995</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>868529041656835</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>868529041664094</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>868529042887918</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>868529042887611</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>868529042887215</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>868529042887751</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>868529042887777</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>868529042888676</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>868529042888890</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>868529042886175</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>868529042884436</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>868529042887876</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/realme/April/Others/7i Imei MC to Sirajgong.xlsx
+++ b/realme/April/Others/7i Imei MC to Sirajgong.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -42,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -138,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,9 +178,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +213,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,19 +389,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>868529041852319</v>
       </c>
@@ -399,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>868529042242270</v>
       </c>
@@ -407,7 +417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>868529042242452</v>
       </c>
@@ -415,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>868529041423137</v>
       </c>
@@ -423,7 +433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>868529042632918</v>
       </c>
@@ -431,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>868529042632793</v>
       </c>
@@ -439,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>868529041805036</v>
       </c>
@@ -447,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>868529041811075</v>
       </c>
@@ -455,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>868529042633452</v>
       </c>
@@ -463,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>868529041251579</v>
       </c>
@@ -471,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>868529041710236</v>
       </c>
@@ -479,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>868529041709071</v>
       </c>
@@ -487,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>868529041710095</v>
       </c>
@@ -495,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>868529041710350</v>
       </c>
@@ -503,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>868529041708511</v>
       </c>
@@ -511,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>868529041708610</v>
       </c>
@@ -519,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>868529041708214</v>
       </c>
@@ -527,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>868529041710673</v>
       </c>
@@ -535,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>868529041710210</v>
       </c>
@@ -543,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>868529041708677</v>
       </c>
@@ -551,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>868529041668350</v>
       </c>
@@ -559,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>868529041667691</v>
       </c>
@@ -567,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>868529041669978</v>
       </c>
@@ -575,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>868529041667899</v>
       </c>
@@ -583,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>868529041668210</v>
       </c>
@@ -591,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>868529041667972</v>
       </c>
@@ -599,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>868529041669911</v>
       </c>
@@ -607,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>868529041670018</v>
       </c>
@@ -615,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>868529041668277</v>
       </c>
@@ -623,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>868529041669812</v>
       </c>
@@ -631,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>868529041664854</v>
       </c>
@@ -639,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>868529041666610</v>
       </c>
@@ -647,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>868529041656975</v>
       </c>
@@ -655,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>868529041662635</v>
       </c>
@@ -663,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>868529041657056</v>
       </c>
@@ -671,7 +681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>868529041664078</v>
       </c>
@@ -679,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>868529041663898</v>
       </c>
@@ -687,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>868529041664995</v>
       </c>
@@ -695,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>868529041656835</v>
       </c>
@@ -703,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>868529041664094</v>
       </c>
@@ -711,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>868529042887918</v>
       </c>
@@ -719,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>868529042887611</v>
       </c>
@@ -727,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>868529042887215</v>
       </c>
@@ -735,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>868529042887751</v>
       </c>
@@ -743,7 +753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>868529042887777</v>
       </c>
@@ -751,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>868529042888676</v>
       </c>
@@ -759,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>868529042888890</v>
       </c>
@@ -767,7 +777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>868529042886175</v>
       </c>
@@ -775,7 +785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>868529042884436</v>
       </c>
@@ -783,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>868529042887876</v>
       </c>
@@ -798,24 +808,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
